--- a/0_File/1_Data/004_戰鬥關卡表.xlsx
+++ b/0_File/1_Data/004_戰鬥關卡表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
@@ -414,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -448,66 +448,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -515,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -545,18 +485,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -565,12 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -583,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -891,168 +816,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="15.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="13">
         <v>100</v>
       </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17">
-        <v>1</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>50</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>2</v>
       </c>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="17">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="13">
         <v>50</v>
       </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="17">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>50</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <v>2</v>
       </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <v>50</v>
       </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
         <v>3</v>
       </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1067,272 +1000,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27.75" thickBot="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
+    <row r="2" spans="1:21">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
         <v>1001</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="18">
         <v>17</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="18">
         <v>1001</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="18">
         <v>21</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="18">
         <v>1001</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="18">
         <v>23</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="18">
         <v>1002</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="18">
         <v>30</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="18">
         <v>1003</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="18">
         <v>32</v>
       </c>
-      <c r="L2" s="12">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
-        <v>0</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12">
-        <v>0</v>
-      </c>
-      <c r="P2" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>0</v>
-      </c>
-      <c r="R2" s="12">
-        <v>0</v>
-      </c>
-      <c r="S2" s="12">
-        <v>0</v>
-      </c>
-      <c r="T2" s="12">
-        <v>0</v>
-      </c>
-      <c r="U2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A3" s="13">
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18">
+        <v>0</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="18">
         <v>1002</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="18">
         <v>19</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="18">
         <v>1001</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="18">
         <v>21</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="18">
         <v>1001</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="18">
         <v>23</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="18">
         <v>1002</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="18">
         <v>30</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="18">
         <v>1003</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="18">
         <v>32</v>
       </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>0</v>
-      </c>
-      <c r="R3" s="12">
-        <v>0</v>
-      </c>
-      <c r="S3" s="12">
-        <v>0</v>
-      </c>
-      <c r="T3" s="12">
-        <v>0</v>
-      </c>
-      <c r="U3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A4" s="13">
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="18">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="18">
         <v>1003</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="18">
         <v>21</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="18">
         <v>1001</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="18">
         <v>21</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="18">
         <v>1001</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="18">
         <v>23</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="18">
         <v>1002</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="18">
         <v>30</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="18">
         <v>1003</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="18">
         <v>32</v>
       </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12">
-        <v>0</v>
-      </c>
-      <c r="S4" s="12">
-        <v>0</v>
-      </c>
-      <c r="T4" s="12">
-        <v>0</v>
-      </c>
-      <c r="U4" s="12">
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1346,175 +1299,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="19.125" style="21"/>
+    <col min="1" max="1" width="11.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="19.125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="23">
-        <v>1</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="17">
         <v>100</v>
       </c>
-      <c r="E4" s="23">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="23">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="17">
         <v>5</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <v>100</v>
       </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="23">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="17">
         <v>8</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <v>100</v>
       </c>
-      <c r="E6" s="23">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
         <v>2</v>
       </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23">
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1530,747 +1483,747 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E17"/>
+      <selection activeCell="A2" sqref="A2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="16.25" style="21"/>
+    <col min="1" max="1" width="6.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="16.25" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="20" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="23">
-        <v>1</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
         <v>101</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="17">
         <v>17</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="17">
         <v>101</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="17">
         <v>19</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="17">
         <v>101</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="17">
         <v>21</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="17">
         <v>101</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="17">
         <v>23</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="17">
         <v>101</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="17">
         <v>25</v>
       </c>
-      <c r="L4" s="23">
-        <v>0</v>
-      </c>
-      <c r="M4" s="23">
-        <v>0</v>
-      </c>
-      <c r="N4" s="23">
-        <v>0</v>
-      </c>
-      <c r="O4" s="23">
-        <v>0</v>
-      </c>
-      <c r="P4" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>0</v>
-      </c>
-      <c r="R4" s="23">
-        <v>0</v>
-      </c>
-      <c r="S4" s="23">
-        <v>0</v>
-      </c>
-      <c r="T4" s="23">
-        <v>0</v>
-      </c>
-      <c r="U4" s="23">
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
+        <v>0</v>
+      </c>
+      <c r="U4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="23">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="17">
         <v>102</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="17">
         <v>19</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <v>102</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <v>20</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="17">
         <v>102</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="17">
         <v>21</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="17">
         <v>102</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="17">
         <v>22</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="17">
         <v>102</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="17">
         <v>23</v>
       </c>
-      <c r="L5" s="23">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23">
-        <v>0</v>
-      </c>
-      <c r="N5" s="23">
-        <v>0</v>
-      </c>
-      <c r="O5" s="23">
-        <v>0</v>
-      </c>
-      <c r="P5" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>0</v>
-      </c>
-      <c r="R5" s="23">
-        <v>0</v>
-      </c>
-      <c r="S5" s="23">
-        <v>0</v>
-      </c>
-      <c r="T5" s="23">
-        <v>0</v>
-      </c>
-      <c r="U5" s="23">
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17">
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="23">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="17">
         <v>103</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="17">
         <v>18</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <v>103</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="17">
         <v>19</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="17">
         <v>103</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="17">
         <v>20</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="17">
         <v>103</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="17">
         <v>21</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="17">
         <v>103</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="17">
         <v>22</v>
       </c>
-      <c r="L6" s="23">
-        <v>0</v>
-      </c>
-      <c r="M6" s="23">
-        <v>0</v>
-      </c>
-      <c r="N6" s="23">
-        <v>0</v>
-      </c>
-      <c r="O6" s="23">
-        <v>0</v>
-      </c>
-      <c r="P6" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>0</v>
-      </c>
-      <c r="R6" s="23">
-        <v>0</v>
-      </c>
-      <c r="S6" s="23">
-        <v>0</v>
-      </c>
-      <c r="T6" s="23">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23">
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="23">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="17">
         <v>104</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <v>25</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="17">
         <v>104</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="17">
         <v>26</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="17">
         <v>104</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="17">
         <v>27</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="17">
         <v>104</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="17">
         <v>28</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="17">
         <v>104</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="17">
         <v>29</v>
       </c>
-      <c r="L7" s="23">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23">
-        <v>0</v>
-      </c>
-      <c r="N7" s="23">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23">
-        <v>0</v>
-      </c>
-      <c r="P7" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>0</v>
-      </c>
-      <c r="R7" s="23">
-        <v>0</v>
-      </c>
-      <c r="S7" s="23">
-        <v>0</v>
-      </c>
-      <c r="T7" s="23">
-        <v>0</v>
-      </c>
-      <c r="U7" s="23">
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <v>0</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17">
+        <v>0</v>
+      </c>
+      <c r="U7" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="23">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="17">
         <v>105</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="17">
         <v>26</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <v>105</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="17">
         <v>27</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="17">
         <v>105</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="17">
         <v>28</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="17">
         <v>105</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="17">
         <v>29</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="17">
         <v>105</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="17">
         <v>18</v>
       </c>
-      <c r="L8" s="23">
-        <v>0</v>
-      </c>
-      <c r="M8" s="23">
-        <v>0</v>
-      </c>
-      <c r="N8" s="23">
-        <v>0</v>
-      </c>
-      <c r="O8" s="23">
-        <v>0</v>
-      </c>
-      <c r="P8" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>0</v>
-      </c>
-      <c r="R8" s="23">
-        <v>0</v>
-      </c>
-      <c r="S8" s="23">
-        <v>0</v>
-      </c>
-      <c r="T8" s="23">
-        <v>0</v>
-      </c>
-      <c r="U8" s="23">
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="23">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="17">
         <v>106</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <v>27</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <v>106</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <v>28</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="17">
         <v>106</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="17">
         <v>29</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="17">
         <v>106</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="17">
         <v>30</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="17">
         <v>106</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="17">
         <v>21</v>
       </c>
-      <c r="L9" s="23">
-        <v>0</v>
-      </c>
-      <c r="M9" s="23">
-        <v>0</v>
-      </c>
-      <c r="N9" s="23">
-        <v>0</v>
-      </c>
-      <c r="O9" s="23">
-        <v>0</v>
-      </c>
-      <c r="P9" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>0</v>
-      </c>
-      <c r="R9" s="23">
-        <v>0</v>
-      </c>
-      <c r="S9" s="23">
-        <v>0</v>
-      </c>
-      <c r="T9" s="23">
-        <v>0</v>
-      </c>
-      <c r="U9" s="23">
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0</v>
+      </c>
+      <c r="S9" s="17">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="23">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="17">
         <v>107</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="17">
         <v>28</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="17">
         <v>107</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="17">
         <v>29</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="17">
         <v>107</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="17">
         <v>30</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="17">
         <v>107</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="17">
         <v>18</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="17">
         <v>107</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="17">
         <v>24</v>
       </c>
-      <c r="L10" s="23">
-        <v>0</v>
-      </c>
-      <c r="M10" s="23">
-        <v>0</v>
-      </c>
-      <c r="N10" s="23">
-        <v>0</v>
-      </c>
-      <c r="O10" s="23">
-        <v>0</v>
-      </c>
-      <c r="P10" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>0</v>
-      </c>
-      <c r="R10" s="23">
-        <v>0</v>
-      </c>
-      <c r="S10" s="23">
-        <v>0</v>
-      </c>
-      <c r="T10" s="23">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23">
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17">
+        <v>0</v>
+      </c>
+      <c r="T10" s="17">
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="23">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="17">
         <v>108</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="17">
         <v>29</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <v>108</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <v>30</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="17">
         <v>108</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="17">
         <v>31</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="17">
         <v>108</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="17">
         <v>20</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="17">
         <v>108</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="17">
         <v>25</v>
       </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-      <c r="M11" s="23">
-        <v>0</v>
-      </c>
-      <c r="N11" s="23">
-        <v>0</v>
-      </c>
-      <c r="O11" s="23">
-        <v>0</v>
-      </c>
-      <c r="P11" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>0</v>
-      </c>
-      <c r="R11" s="23">
-        <v>0</v>
-      </c>
-      <c r="S11" s="23">
-        <v>0</v>
-      </c>
-      <c r="T11" s="23">
-        <v>0</v>
-      </c>
-      <c r="U11" s="23">
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>0</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
+        <v>0</v>
+      </c>
+      <c r="T11" s="17">
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
         <v>0</v>
       </c>
     </row>

--- a/0_File/1_Data/004_戰鬥關卡表.xlsx
+++ b/0_File/1_Data/004_戰鬥關卡表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="95">
   <si>
     <t>int</t>
   </si>
@@ -296,6 +296,38 @@
   </si>
   <si>
     <t>1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_background</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>an_lattice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子尺寸(寬、長)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1297,179 +1329,293 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="19.125" style="15"/>
+    <col min="2" max="2" width="14.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="19.125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="17">
+      <c r="F4" s="17">
         <v>100</v>
       </c>
-      <c r="E4" s="17">
+      <c r="G4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
       <c r="H4" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17">
         <v>5</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="17">
+      <c r="F5" s="17">
         <v>100</v>
       </c>
-      <c r="E5" s="17">
+      <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="17">
+      <c r="H5" s="17">
         <v>1</v>
       </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
         <v>8</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="17">
+      <c r="F6" s="17">
         <v>100</v>
       </c>
-      <c r="E6" s="17">
+      <c r="G6" s="17">
         <v>1</v>
       </c>
-      <c r="F6" s="17">
+      <c r="H6" s="17">
         <v>2</v>
       </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1482,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="15.75"/>
@@ -1783,13 +1929,13 @@
         <v>19</v>
       </c>
       <c r="D5" s="17">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" s="17">
         <v>20</v>
       </c>
       <c r="F5" s="17">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G5" s="17">
         <v>21</v>
